--- a/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_25_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste03/content/results/metrics_25_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,881 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_15</t>
+          <t>model_25_7_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9377234806815788</v>
+        <v>0.9872598817502785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7610863715300454</v>
+        <v>0.7934974139634303</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8862578378082285</v>
+        <v>0.9999958628418215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.869982639937237</v>
+        <v>0.9869049657164588</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9025013222954262</v>
+        <v>0.9955666945201205</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4164433714392868</v>
+        <v>0.08519322939873879</v>
       </c>
       <c r="H2" t="n">
-        <v>1.597616533674691</v>
+        <v>1.380883743683519</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4042749476087977</v>
+        <v>2.693741071580476e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9502926714114013</v>
+        <v>0.07088697803100262</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6772838095100995</v>
+        <v>0.03545695772085922</v>
       </c>
       <c r="L2" t="n">
-        <v>1.532044463897832</v>
+        <v>0.3297390200649589</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6453242374491189</v>
+        <v>0.29187879230725</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01479838082814</v>
+        <v>1.007457630194959</v>
       </c>
       <c r="O2" t="n">
-        <v>0.672797026242658</v>
+        <v>0.3043046767681643</v>
       </c>
       <c r="P2" t="n">
-        <v>251.7520095790998</v>
+        <v>134.925666630911</v>
       </c>
       <c r="Q2" t="n">
-        <v>404.1114876876249</v>
+        <v>214.152595247344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_14</t>
+          <t>model_25_7_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9370624779962371</v>
+        <v>0.9894252800007705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7606592231515956</v>
+        <v>0.7931750707105831</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8859419271329745</v>
+        <v>0.9993404236490794</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8698252200810043</v>
+        <v>0.9881568244240306</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9023376866380508</v>
+        <v>0.9957235506904638</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4208634994398039</v>
+        <v>0.07071320132695624</v>
       </c>
       <c r="H3" t="n">
-        <v>1.600472876848223</v>
+        <v>1.383039254499562</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4053977922006921</v>
+        <v>0.004294561217350931</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9514432480393252</v>
+        <v>0.06411032676151338</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6784205201200086</v>
+        <v>0.03420244398943215</v>
       </c>
       <c r="L3" t="n">
-        <v>1.545179047304539</v>
+        <v>0.3376760461187792</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6487399320527479</v>
+        <v>0.2659195391973975</v>
       </c>
       <c r="N3" t="n">
-        <v>1.014955450773171</v>
+        <v>1.006190079999549</v>
       </c>
       <c r="O3" t="n">
-        <v>0.676358134037026</v>
+        <v>0.2772402845103634</v>
       </c>
       <c r="P3" t="n">
-        <v>251.7308934544652</v>
+        <v>135.2982460007133</v>
       </c>
       <c r="Q3" t="n">
-        <v>404.0903715629902</v>
+        <v>214.5251746171463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_13</t>
+          <t>model_25_7_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9363867844243521</v>
+        <v>0.9870470987698543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7602186184783701</v>
+        <v>0.7931660304528227</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8856086593084245</v>
+        <v>0.9999999999998489</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8696624205969931</v>
+        <v>0.9866803322055516</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9021667803521436</v>
+        <v>0.9954923580869385</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4253818654662818</v>
+        <v>0.08661611016861004</v>
       </c>
       <c r="H4" t="n">
-        <v>1.603419202326879</v>
+        <v>1.383099706744832</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4065823294884786</v>
+        <v>9.839846587498176e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9526331441923525</v>
+        <v>0.07210298025046398</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6796077368404155</v>
+        <v>0.03605149012572399</v>
       </c>
       <c r="L4" t="n">
-        <v>1.558445349131674</v>
+        <v>0.326426867478023</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6522130522047851</v>
+        <v>0.2943061504090767</v>
       </c>
       <c r="N4" t="n">
-        <v>1.015116011621936</v>
+        <v>1.007582186085939</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6799791121042854</v>
+        <v>0.3068353725297097</v>
       </c>
       <c r="P4" t="n">
-        <v>251.709536012988</v>
+        <v>134.892538902109</v>
       </c>
       <c r="Q4" t="n">
-        <v>404.0690141215131</v>
+        <v>214.119467518542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_12</t>
+          <t>model_25_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9356960585642103</v>
+        <v>0.9909394908825127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7597642296370488</v>
+        <v>0.7925320754890803</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8852571176677115</v>
+        <v>0.9977642149274121</v>
       </c>
       <c r="E5" t="n">
-        <v>0.869494445632514</v>
+        <v>0.988576528964228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9019884763241672</v>
+        <v>0.9952239881542982</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4300007524735501</v>
+        <v>0.06058766618844637</v>
       </c>
       <c r="H5" t="n">
-        <v>1.606457702601063</v>
+        <v>1.387338966506472</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4078318175907176</v>
+        <v>0.01455739862362519</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9538608677644046</v>
+        <v>0.06183835206665715</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6808463426775611</v>
+        <v>0.03819787534514116</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5718406174495</v>
+        <v>0.3451447138801664</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6557444261856521</v>
+        <v>0.246145619884747</v>
       </c>
       <c r="N5" t="n">
-        <v>1.015280144499594</v>
+        <v>1.005303712654139</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6836608239864698</v>
+        <v>0.2566245485149174</v>
       </c>
       <c r="P5" t="n">
-        <v>251.6879366407152</v>
+        <v>135.60732786973</v>
       </c>
       <c r="Q5" t="n">
-        <v>404.0474147492402</v>
+        <v>214.8342564861631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_11</t>
+          <t>model_25_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9349899473350516</v>
+        <v>0.991970192149967</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7592957115846082</v>
+        <v>0.7916778158597951</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8848864654879257</v>
+        <v>0.9956843121039171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8693208630363625</v>
+        <v>0.9883780320217308</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9018023331470558</v>
+        <v>0.9943101841734309</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4347225215142776</v>
+        <v>0.0536953620670363</v>
       </c>
       <c r="H6" t="n">
-        <v>1.609590684975061</v>
+        <v>1.393051404581006</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4091492304803317</v>
+        <v>0.02809983383855205</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9551295773346319</v>
+        <v>0.06291286994094045</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6821394039074817</v>
+        <v>0.04550635188974625</v>
       </c>
       <c r="L6" t="n">
-        <v>1.585370641976843</v>
+        <v>0.3524176498115025</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6593349084602435</v>
+        <v>0.2317225972300421</v>
       </c>
       <c r="N6" t="n">
-        <v>1.015447933306522</v>
+        <v>1.004700375326849</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6874041605248135</v>
+        <v>0.2415875079260288</v>
       </c>
       <c r="P6" t="n">
-        <v>251.6660946660057</v>
+        <v>135.8488572973279</v>
       </c>
       <c r="Q6" t="n">
-        <v>404.0255727745308</v>
+        <v>215.0757859137609</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_10</t>
+          <t>model_25_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9342681281958509</v>
+        <v>0.9926481288521933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7588126725117461</v>
+        <v>0.7906908611758131</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8844972814285881</v>
+        <v>0.993391548954175</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8691415651019115</v>
+        <v>0.987745704129089</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9016084421973276</v>
+        <v>0.9931629176567187</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4395493294217843</v>
+        <v>0.049161996217637</v>
       </c>
       <c r="H7" t="n">
-        <v>1.61282076947948</v>
+        <v>1.399651175097302</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4105325114217788</v>
+        <v>0.04302822187082332</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9564400601272816</v>
+        <v>0.06633583260476722</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6834862857745301</v>
+        <v>0.05468202917213484</v>
       </c>
       <c r="L7" t="n">
-        <v>1.599031448581768</v>
+        <v>0.3581971486694697</v>
       </c>
       <c r="M7" t="n">
-        <v>0.662985165310495</v>
+        <v>0.2217250464373319</v>
       </c>
       <c r="N7" t="n">
-        <v>1.015619454686134</v>
+        <v>1.004303534330423</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6912098163662534</v>
+        <v>0.2311643406982898</v>
       </c>
       <c r="P7" t="n">
-        <v>251.6440106565756</v>
+        <v>136.0252687771321</v>
       </c>
       <c r="Q7" t="n">
-        <v>404.0034887651007</v>
+        <v>215.2521973935652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_9</t>
+          <t>model_25_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9335302148120036</v>
+        <v>0.9930715449730152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7583148098224544</v>
+        <v>0.7896278943492714</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8840884924194419</v>
+        <v>0.9910723207489029</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8689564244444516</v>
+        <v>0.9868275086806555</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9014064619353082</v>
+        <v>0.9919081356724972</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4444837596173503</v>
+        <v>0.04633061066804947</v>
       </c>
       <c r="H8" t="n">
-        <v>1.616149979575221</v>
+        <v>1.406759239160899</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4119854744398108</v>
+        <v>0.05812892627092103</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9577932471930666</v>
+        <v>0.07130627400812276</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6848893608164387</v>
+        <v>0.06471760013952188</v>
       </c>
       <c r="L8" t="n">
-        <v>1.612832499423628</v>
+        <v>0.3624811471774498</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6666961523942899</v>
+        <v>0.2152454660801232</v>
       </c>
       <c r="N8" t="n">
-        <v>1.015794800440712</v>
+        <v>1.004055680991406</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6950787878530079</v>
+        <v>0.2244089111906943</v>
       </c>
       <c r="P8" t="n">
-        <v>251.6216835219792</v>
+        <v>136.1439047976125</v>
       </c>
       <c r="Q8" t="n">
-        <v>403.9811616305042</v>
+        <v>215.3708334140455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_8</t>
+          <t>model_25_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9327760064179866</v>
+        <v>0.9933131460418964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7578017631931003</v>
+        <v>0.7885300265445248</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8836596136576118</v>
+        <v>0.9888375165086063</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8687651241421757</v>
+        <v>0.9857367130607604</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9011961016062311</v>
+        <v>0.9906293070427082</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4495271546209516</v>
+        <v>0.04471502320797036</v>
       </c>
       <c r="H9" t="n">
-        <v>1.619580724748074</v>
+        <v>1.414100686226456</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4135098426743187</v>
+        <v>0.0726799386068747</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9591914549032052</v>
+        <v>0.07721104702891578</v>
       </c>
       <c r="K9" t="n">
-        <v>0.686350648788762</v>
+        <v>0.07494549281789524</v>
       </c>
       <c r="L9" t="n">
-        <v>1.626767526601131</v>
+        <v>0.3654500572315934</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6704678624818281</v>
+        <v>0.2114592708016614</v>
       </c>
       <c r="N9" t="n">
-        <v>1.015974018276914</v>
+        <v>1.003914255975475</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6990110674474889</v>
+        <v>0.2204615297407236</v>
       </c>
       <c r="P9" t="n">
-        <v>251.59911803234</v>
+        <v>136.2148914883286</v>
       </c>
       <c r="Q9" t="n">
-        <v>403.958596140865</v>
+        <v>215.4418201047617</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_7</t>
+          <t>model_25_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9320050294888049</v>
+        <v>0.9934259895257052</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7572731075088165</v>
+        <v>0.7874273366306247</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8832105684757965</v>
+        <v>0.9867468574348771</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8685678233839083</v>
+        <v>0.9845566675808789</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9009774253427109</v>
+        <v>0.9893789490569984</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4546826808964124</v>
+        <v>0.04396043831214422</v>
       </c>
       <c r="H10" t="n">
-        <v>1.623115847743115</v>
+        <v>1.421474378758126</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4151058886246876</v>
+        <v>0.08629240873896406</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9606335197517366</v>
+        <v>0.0835989537878221</v>
       </c>
       <c r="K10" t="n">
-        <v>0.687869704188212</v>
+        <v>0.08494568126339308</v>
       </c>
       <c r="L10" t="n">
-        <v>1.640839503660334</v>
+        <v>0.3673288516868149</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6743016245690147</v>
+        <v>0.2096674469538469</v>
       </c>
       <c r="N10" t="n">
-        <v>1.016157220715532</v>
+        <v>1.003848201253246</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7030080407237085</v>
+        <v>0.218593424242121</v>
       </c>
       <c r="P10" t="n">
-        <v>251.5763110159084</v>
+        <v>136.248930357585</v>
       </c>
       <c r="Q10" t="n">
-        <v>403.9357891244334</v>
+        <v>215.4758589740181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_6</t>
+          <t>model_25_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9312170235366818</v>
+        <v>0.9934487195097638</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7567284477147296</v>
+        <v>0.7863415796302462</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8827403389740091</v>
+        <v>0.984827588754048</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8683643052694499</v>
+        <v>0.9833468212913006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9007500586267893</v>
+        <v>0.9881882719905714</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4599520803266937</v>
+        <v>0.04380844280408226</v>
       </c>
       <c r="H11" t="n">
-        <v>1.626757990294103</v>
+        <v>1.428734840819108</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4167772302234056</v>
+        <v>0.09878894053677693</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9621210270551916</v>
+        <v>0.09014818042543546</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6894491286392986</v>
+        <v>0.09446855005623989</v>
       </c>
       <c r="L11" t="n">
-        <v>1.655051130105684</v>
+        <v>0.3683308311639326</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6781976705405981</v>
+        <v>0.2093046650318197</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01634446965465</v>
+        <v>1.003834895896724</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7070699494382292</v>
+        <v>0.218215197942611</v>
       </c>
       <c r="P11" t="n">
-        <v>251.5532659362565</v>
+        <v>136.2558574441822</v>
       </c>
       <c r="Q11" t="n">
-        <v>403.9127440447816</v>
+        <v>215.4827860606153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_5</t>
+          <t>model_25_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9304114754337747</v>
+        <v>0.9934093877692479</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7561674258510778</v>
+        <v>0.7852883844238641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8822489742621122</v>
+        <v>0.9830869443661329</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8681537645060002</v>
+        <v>0.9821482488976709</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9005135903716364</v>
+        <v>0.9870741170083657</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4653387842000411</v>
+        <v>0.04407145433401831</v>
       </c>
       <c r="H12" t="n">
-        <v>1.63050954607961</v>
+        <v>1.435777562013704</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4185236929187776</v>
+        <v>0.1101224334236969</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9636598626725509</v>
+        <v>0.09663637840156319</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6910917777956642</v>
+        <v>0.10337940591263</v>
       </c>
       <c r="L12" t="n">
-        <v>1.669404825004206</v>
+        <v>0.3686428741136268</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6821574482478668</v>
+        <v>0.2099320231265785</v>
       </c>
       <c r="N12" t="n">
-        <v>1.016535887025638</v>
+        <v>1.003857919354587</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7111983030803662</v>
+        <v>0.218869263970274</v>
       </c>
       <c r="P12" t="n">
-        <v>251.5299791409992</v>
+        <v>136.2438860002555</v>
       </c>
       <c r="Q12" t="n">
-        <v>403.8894572495243</v>
+        <v>215.4708146166885</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_4</t>
+          <t>model_25_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9295880940094745</v>
+        <v>0.9933283060905114</v>
       </c>
       <c r="C13" t="n">
-        <v>0.755589637930667</v>
+        <v>0.784278642497576</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8817357692478834</v>
+        <v>0.9815208003204173</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8679363539580125</v>
+        <v>0.9809878265640692</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9002679206120673</v>
+        <v>0.9860439031304058</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4708447395756595</v>
+        <v>0.04461364789307633</v>
       </c>
       <c r="H13" t="n">
-        <v>1.634373216563866</v>
+        <v>1.442529710924226</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4203477828274091</v>
+        <v>0.120319738815448</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9652489093224793</v>
+        <v>0.102918059738747</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6927983460749442</v>
+        <v>0.1116189125471379</v>
       </c>
       <c r="L13" t="n">
-        <v>1.683898042392946</v>
+        <v>0.3684157293159167</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6861812731164116</v>
+        <v>0.2112194306712248</v>
       </c>
       <c r="N13" t="n">
-        <v>1.016731542017551</v>
+        <v>1.003905381800676</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7153934305040308</v>
+        <v>0.2202114791193968</v>
       </c>
       <c r="P13" t="n">
-        <v>251.5064537585513</v>
+        <v>136.2194309203907</v>
       </c>
       <c r="Q13" t="n">
-        <v>403.8659318670764</v>
+        <v>215.4463595368238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_3</t>
+          <t>model_25_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9287465967584145</v>
+        <v>0.9932201811990042</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7549947032066188</v>
+        <v>0.7833196259260873</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8812003054828683</v>
+        <v>0.9801188885172513</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8677118408077565</v>
+        <v>0.979882492412071</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9000128198145472</v>
+        <v>0.9850991865791476</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4764718355682359</v>
+        <v>0.04533667954045338</v>
       </c>
       <c r="H14" t="n">
-        <v>1.638351547802999</v>
+        <v>1.448942659153636</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4222509872449838</v>
+        <v>0.1294477132366348</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9668898686622223</v>
+        <v>0.1089015337834159</v>
       </c>
       <c r="K14" t="n">
-        <v>0.694570427953603</v>
+        <v>0.1191746235100254</v>
       </c>
       <c r="L14" t="n">
-        <v>1.698539234773351</v>
+        <v>0.3677866139588363</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6902693934749214</v>
+        <v>0.21292411685963</v>
       </c>
       <c r="N14" t="n">
-        <v>1.016931501760377</v>
+        <v>1.003968674420095</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7196555906097781</v>
+        <v>0.2219887373280293</v>
       </c>
       <c r="P14" t="n">
-        <v>251.482693329044</v>
+        <v>136.1872777424918</v>
       </c>
       <c r="Q14" t="n">
-        <v>403.842171437569</v>
+        <v>215.4142063589249</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_2</t>
+          <t>model_25_7_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9278865159048023</v>
+        <v>0.9930956111198839</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7543822080080724</v>
+        <v>0.7824156679492618</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8806419188391151</v>
+        <v>0.9788679085514996</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8674804134385192</v>
+        <v>0.9788418653949038</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8997482171796729</v>
+        <v>0.9842378036663193</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4822232001966488</v>
+        <v>0.04616968023312418</v>
       </c>
       <c r="H15" t="n">
-        <v>1.642447306015959</v>
+        <v>1.454987430307012</v>
       </c>
       <c r="I15" t="n">
-        <v>0.424235666688374</v>
+        <v>0.1375929568268595</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9685813638044412</v>
+        <v>0.1145347305286214</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6964085152464077</v>
+        <v>0.1260638436777404</v>
       </c>
       <c r="L15" t="n">
-        <v>1.713320594247772</v>
+        <v>0.3668811777002687</v>
       </c>
       <c r="M15" t="n">
-        <v>0.694422926030419</v>
+        <v>0.2148713108656532</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01713587740876</v>
+        <v>1.0040415934908</v>
       </c>
       <c r="O15" t="n">
-        <v>0.723985947645161</v>
+        <v>0.2240188274141362</v>
       </c>
       <c r="P15" t="n">
-        <v>251.4586964023368</v>
+        <v>136.150863936691</v>
       </c>
       <c r="Q15" t="n">
-        <v>403.8181745108619</v>
+        <v>215.377792553124</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_1</t>
+          <t>model_25_7_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9270073623438242</v>
+        <v>0.9929622436812178</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7537516333961192</v>
+        <v>0.7815689331353289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8800603560873816</v>
+        <v>0.9777536463657247</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8672410424854451</v>
+        <v>0.9778708097074162</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8994735063924146</v>
+        <v>0.9834556163311194</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4881021041070393</v>
+        <v>0.04706150890958472</v>
       </c>
       <c r="H16" t="n">
-        <v>1.64666396134962</v>
+        <v>1.460649549906636</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4263027212129036</v>
+        <v>0.1448480185984199</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9703309183435058</v>
+        <v>0.1197913187662201</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6983168197782047</v>
+        <v>0.13231966868232</v>
       </c>
       <c r="L16" t="n">
-        <v>1.728253029370403</v>
+        <v>0.3657760492473377</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6986430448426716</v>
+        <v>0.2169366472258312</v>
       </c>
       <c r="N16" t="n">
-        <v>1.017344785185626</v>
+        <v>1.004119662235385</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7283857256521015</v>
+        <v>0.2261720894190026</v>
       </c>
       <c r="P16" t="n">
-        <v>251.4344613305739</v>
+        <v>136.1125996653397</v>
       </c>
       <c r="Q16" t="n">
-        <v>403.7939394390989</v>
+        <v>215.3395282817727</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_25_7_0</t>
+          <t>model_25_7_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9261088532950221</v>
+        <v>0.9928255572351492</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7531025877936246</v>
+        <v>0.7807800141923352</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8794551798099686</v>
+        <v>0.9767622750003524</v>
       </c>
       <c r="E17" t="n">
-        <v>0.86699415124457</v>
+        <v>0.9769706344124985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8991887982364566</v>
+        <v>0.9827474392947751</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4941104382536331</v>
+        <v>0.04797553180382891</v>
       </c>
       <c r="H17" t="n">
-        <v>1.651004132282081</v>
+        <v>1.465925054511073</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4284537055368413</v>
+        <v>0.1513029271344478</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9721354384224098</v>
+        <v>0.1246642121831609</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7002945719796255</v>
+        <v>0.1379835696588043</v>
       </c>
       <c r="L17" t="n">
-        <v>1.743329638664839</v>
+        <v>0.3645572060090579</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7029298956892025</v>
+        <v>0.219033175121553</v>
       </c>
       <c r="N17" t="n">
-        <v>1.017558292286331</v>
+        <v>1.004199673813571</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7328550766141737</v>
+        <v>0.2283578708476564</v>
       </c>
       <c r="P17" t="n">
-        <v>251.409992455124</v>
+        <v>136.0741283042599</v>
       </c>
       <c r="Q17" t="n">
-        <v>403.769470563649</v>
+        <v>215.3010569206929</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9926893924792303</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7800482729175992</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9758804504573262</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9761403139914865</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9821074937998958</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04888606615363943</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.470818211784592</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1570445664119969</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1291589621905704</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1431017643012837</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3632638013604004</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.2211019361146334</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.004279380012158</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.2305147032791378</v>
+      </c>
+      <c r="P18" t="n">
+        <v>136.0365257376788</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>215.2634543541118</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9925564151087937</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7793720702858971</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9750959927104618</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9753774549961012</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9815300119514592</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.04977528644205394</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.47533998189641</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1621522416820884</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1332885251741968</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1477203834281426</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3619558729991866</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.2231037571222277</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.004357220424121</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.2326017459513661</v>
+      </c>
+      <c r="P19" t="n">
+        <v>136.0004733486221</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>215.2274019650551</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.992428489230178</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.778749310455003</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9743981094589161</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9746789413359263</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9810095461742985</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0506307273814007</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.479504379753145</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1666962225906566</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1370697693779946</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1518829959843256</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3606596747598486</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2250127271542672</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.004432103865262</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2345919847897823</v>
+      </c>
+      <c r="P20" t="n">
+        <v>135.9663932529895</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>215.1933218694226</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9923067530495258</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7781773062044102</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9737769733808904</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9740406600329091</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9805407043232069</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.05144477778196606</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.483329374810696</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1707404957178895</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1405249594695124</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1556327275937009</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3593903248351999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2268144126416266</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.00450336406857</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.2364703717583417</v>
+      </c>
+      <c r="P21" t="n">
+        <v>135.9344926453801</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>215.1614212618132</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9921919102420362</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7776531442731598</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9732237171153586</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.97345875501832</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9801185719502019</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05221273216445142</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.486834448058511</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1743427972526442</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1436749693963405</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1590088833244923</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3581644862391395</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2285010550620093</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.004570589126613</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2382288180383913</v>
+      </c>
+      <c r="P22" t="n">
+        <v>135.9048578052773</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>215.1317864217104</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9920843112950692</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7771739099435635</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9727305318250649</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.972929193048969</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9797386083036377</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05293224681826689</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.490039090227193</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1775539712398667</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1465416321995543</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1620477794738411</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3570038125025986</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.2300700910989233</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.004633573876057</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.2398646511877491</v>
+      </c>
+      <c r="P23" t="n">
+        <v>135.8774850903023</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>215.1044137067353</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9919840824038421</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7767364962355525</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9722907192730343</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.972447912251039</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9793967038888693</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.05360247787541481</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.492964077706767</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1804176305057242</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1491469359055924</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1647822832056583</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.355899166792258</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2315220893897919</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.004692244446531</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.2413784640519107</v>
+      </c>
+      <c r="P24" t="n">
+        <v>135.8523199659099</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>215.079248582343</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9918911560773284</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7763379270915779</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9718982806126854</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9720109739096855</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9790890922678493</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.05422387664869803</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.495629311407768</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1829728340823406</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1515122018479171</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1672425179651288</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3548721450753276</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2328602083841248</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.004746640344979</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2427735495421206</v>
+      </c>
+      <c r="P25" t="n">
+        <v>135.829267877934</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>215.056196494367</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_25_7_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9918053354336426</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7759752586110785</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9715478910003196</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9716147940233395</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9788123902729202</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.05479775968819284</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.498054477206802</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1852542525081653</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1536568312006658</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1694555418544155</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3539078505560782</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2340892130966159</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.004796876819331</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.2440548755296129</v>
+      </c>
+      <c r="P26" t="n">
+        <v>135.8082119349323</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>215.0351405513654</v>
       </c>
     </row>
   </sheetData>
